--- a/fst-ueb4.xlsx
+++ b/fst-ueb4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <r>
       <t xml:space="preserve">Allg Datenstruktur für </t>
@@ -118,7 +118,7 @@
     <t>**</t>
   </si>
   <si>
-    <t>Christian/Carlo</t>
+    <t>Carlo</t>
   </si>
   <si>
     <t>(Wer sich auch immer opfern möchte)</t>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>int: indexOfValue(int value)</t>
-  </si>
-  <si>
-    <t>Carlo</t>
   </si>
   <si>
     <t>int: valueOfIndexElement(int index)</t>
@@ -443,8 +440,8 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -586,7 +583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>3</v>
       </c>
@@ -642,7 +639,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,13 +647,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,16 +661,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -681,16 +678,16 @@
         <v>9</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>25</v>
@@ -712,13 +709,13 @@
         <v>11</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,16 +723,16 @@
         <v>12</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,13 +740,13 @@
         <v>13</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,16 +754,16 @@
         <v>14</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,18 +771,18 @@
         <v>15</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,12 +806,12 @@
         <v>2</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,17 +819,17 @@
         <v>3</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,17 +837,17 @@
         <v>4</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,12 +855,12 @@
         <v>5</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,22 +868,22 @@
         <v>6</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/fst-ueb4.xlsx
+++ b/fst-ueb4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <r>
       <t xml:space="preserve">Allg Datenstruktur für </t>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>addToTail(int value)</t>
+  </si>
+  <si>
+    <t>fertig</t>
   </si>
   <si>
     <t>length()</t>
@@ -266,7 +269,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,13 +279,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFF8CBAD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAFABAB"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF33"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -332,7 +347,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -353,11 +368,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -409,12 +440,12 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF99FF33"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -438,10 +469,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -565,11 +596,13 @@
       <c r="C19" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>2</v>
       </c>
@@ -579,15 +612,17 @@
       <c r="C20" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="0" t="s">
@@ -600,40 +635,48 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="8"/>
+      <c r="F22" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="7" t="s">
         <v>22</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>30</v>
+      <c r="B24" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>25</v>
@@ -646,22 +689,22 @@
       <c r="A25" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>31</v>
+      <c r="B25" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>33</v>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>21</v>
@@ -670,46 +713,50 @@
         <v>26</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>35</v>
+      <c r="B27" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="8"/>
+      <c r="F28" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>25</v>
@@ -722,67 +769,68 @@
       <c r="A30" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>38</v>
+      <c r="B30" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>41</v>
+      <c r="B31" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>42</v>
+      <c r="B32" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>43</v>
-      </c>
+      <c r="E32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>44</v>
+      <c r="B33" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,7 +838,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,12 +854,12 @@
         <v>2</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,17 +867,17 @@
         <v>3</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,17 +885,17 @@
         <v>4</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,12 +903,12 @@
         <v>5</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -868,22 +916,22 @@
         <v>6</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/fst-ueb4.xlsx
+++ b/fst-ueb4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <r>
       <t xml:space="preserve">Allg Datenstruktur für </t>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>addToTail(int value)</t>
-  </si>
-  <si>
-    <t>fertig</t>
   </si>
   <si>
     <t>length()</t>
@@ -471,8 +468,8 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -649,16 +646,14 @@
         <v>22</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>21</v>
@@ -667,16 +662,14 @@
         <v>22</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>25</v>
@@ -690,13 +683,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,7 +697,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>21</v>
@@ -713,7 +706,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,16 +714,16 @@
         <v>9</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>25</v>
@@ -747,16 +740,14 @@
         <v>22</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>25</v>
@@ -770,16 +761,16 @@
         <v>12</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,10 +778,10 @@
         <v>13</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>26</v>
@@ -801,16 +792,16 @@
         <v>14</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" s="4"/>
     </row>
@@ -819,18 +810,19 @@
         <v>15</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,12 +846,12 @@
         <v>2</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -867,17 +859,17 @@
         <v>3</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,17 +877,17 @@
         <v>4</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,12 +895,12 @@
         <v>5</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,22 +908,22 @@
         <v>6</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
